--- a/biology/Zoologie/Cardioglossa/Cardioglossa.xlsx
+++ b/biology/Zoologie/Cardioglossa/Cardioglossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cardioglossa est un genre d'amphibiens de la famille des Arthroleptidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cardioglossa est un genre d'amphibiens de la famille des Arthroleptidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Afrique centrale et en Afrique de l'Ouest[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Afrique centrale et en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (25 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (25 septembre 2015) :
 Cardioglossa alsco Herrmann, Herrmann, Schmitz &amp; Böhme, 2004
 Cardioglossa annulata Hirschfeld, Blackburn, Burger, Zassi-Boulou &amp; Rödel, 2015
 Cardioglossa congolia Hirschfeld, Blackburn, Greenbaum &amp; Rödel, 2015
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1900 : A list of the batrachians and reptiles of the Gaboon (French Congo), with descriptions of new genera and species. Proceedings of the Zoological Society of London, vol. 1900, p. 433-456 (texte intégral).</t>
         </is>
